--- a/Guild Digital/Example CHT application/forms/app/vht_visit.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/vht_visit.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="406">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -735,68 +735,10 @@
     <t xml:space="preserve">group_device_summary</t>
   </si>
   <si>
-    <t xml:space="preserve">Results/Summary Page:</t>
+    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_vht_visit</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">style="text-align: center; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">background-color: pink;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&gt;Vht visit&lt;/h4&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 pink</t>
   </si>
   <si>
     <r>
@@ -843,7 +785,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> background-color: yellow;</t>
+      <t xml:space="preserve"> background-color: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#FFA500;</t>
     </r>
     <r>
       <rPr>
@@ -1299,28 +1251,124 @@
     <t xml:space="preserve">s_follow_up_tasks</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:#ff7276;"&gt;Follow up tasks&lt;/h4&gt;</t>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Follow up tasks&lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">s_device_functionality_follow</t>
   </si>
   <si>
-    <t xml:space="preserve">**Please conduct a device functionality follow up task in 5 days**</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align: center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Please conduct a device functionality follow up task in 5 days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">s_vht_visit_follow</t>
   </si>
   <si>
-    <t xml:space="preserve">**Please conduct another VHT Visit task in 30 days**</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align: center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Please conduct another VHT Visit task in 30 days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">group_device_summary_1</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h1 style="text-align:center;"&gt;Vht visit Summary&lt;i class="fa fa-user"&gt;&lt;/i&gt; &lt;/h1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
+    <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h5&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_vht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center; background-color: #FFA500; "&gt;VHT&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align: center;"&gt;${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">name}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1351,7 +1399,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;p style="text-align: center;"&gt;${</t>
+      <t xml:space="preserve">&lt;h5 style="text-align: center;"&gt;${</t>
     </r>
     <r>
       <rPr>
@@ -1379,11 +1427,44 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;/p&gt;</t>
+      <t xml:space="preserve">&lt;/h5&gt;</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center; background-color: #ADD8E6; "&gt;Follow up tasks&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align: center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Please conduct a device functionality follow up task in 5 days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1408,7 +1489,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">**Please conduct another VHT Visit within 5 days**</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align: center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Please conduct another VHT Visit within 5 days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -1659,7 +1767,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1734,6 +1842,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1811,7 +1925,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1892,7 +2006,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1900,11 +2026,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2093,8 +2219,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H62" activeCellId="0" sqref="H62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C122" activeCellId="0" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4259,7 +4385,7 @@
       <c r="B112" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="20" t="s">
         <v>231</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -4270,53 +4396,53 @@
       </c>
       <c r="AMJ112" s="19"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="19" t="s">
         <v>233</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="19"/>
+      <c r="AMD113" s="19"/>
+      <c r="AME113" s="19"/>
+      <c r="AMF113" s="19"/>
+      <c r="AMG113" s="19"/>
+      <c r="AMH113" s="19"/>
+      <c r="AMI113" s="19"/>
       <c r="AMJ113" s="19"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
-      <c r="T114" s="19"/>
-      <c r="U114" s="19"/>
-      <c r="AMD114" s="19"/>
-      <c r="AME114" s="19"/>
-      <c r="AMF114" s="19"/>
-      <c r="AMG114" s="19"/>
-      <c r="AMH114" s="19"/>
-      <c r="AMI114" s="19"/>
       <c r="AMJ114" s="19"/>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4329,47 +4455,46 @@
       <c r="C115" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="AMJ115" s="19"/>
+    </row>
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AMJ115" s="19"/>
-    </row>
-    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+      <c r="C116" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
+      <c r="Z116" s="6"/>
+    </row>
+    <row r="117" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="AMJ116" s="19"/>
-    </row>
-    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="E117" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6"/>
-      <c r="U117" s="6"/>
-      <c r="V117" s="6"/>
-      <c r="W117" s="6"/>
-      <c r="X117" s="6"/>
-      <c r="Y117" s="6"/>
-      <c r="Z117" s="6"/>
     </row>
     <row r="118" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11" t="s">
@@ -4413,36 +4538,36 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="11" t="s">
+    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C121" s="5"/>
+      <c r="AMJ121" s="19"/>
+    </row>
+    <row r="122" s="11" customFormat="true" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E121" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C122" s="5"/>
-      <c r="AMJ122" s="19"/>
-    </row>
-    <row r="123" s="11" customFormat="true" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="123" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B123" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="E123" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="124" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
         <v>93</v>
       </c>
@@ -4453,24 +4578,24 @@
         <v>261</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="125" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B125" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="E125" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E125" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="126" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="126" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="s">
         <v>93</v>
       </c>
@@ -4481,24 +4606,24 @@
         <v>266</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="127" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B127" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="E127" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E127" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="128" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="128" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="s">
         <v>93</v>
       </c>
@@ -4509,24 +4634,24 @@
         <v>271</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="129" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B129" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="E129" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E129" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="130" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
         <v>93</v>
       </c>
@@ -4537,24 +4662,24 @@
         <v>276</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="131" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B131" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="E131" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E131" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="132" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="132" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="s">
         <v>93</v>
       </c>
@@ -4565,38 +4690,38 @@
         <v>281</v>
       </c>
       <c r="E132" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="13"/>
+    </row>
+    <row r="134" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="133" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B133" s="11" t="s">
+      <c r="C134" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C133" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="134" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="13"/>
-    </row>
-    <row r="135" s="11" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="135" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B135" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="E135" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="136" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
         <v>93</v>
       </c>
@@ -4607,24 +4732,24 @@
         <v>288</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="137" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="137" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B137" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="E137" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E137" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="138" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="138" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
         <v>93</v>
       </c>
@@ -4635,24 +4760,24 @@
         <v>293</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="139" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="139" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B139" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C139" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="E139" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E139" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="140" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="140" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11" t="s">
         <v>93</v>
       </c>
@@ -4663,24 +4788,24 @@
         <v>298</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="141" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C141" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="E141" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E141" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="142" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="142" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="11" t="s">
         <v>93</v>
       </c>
@@ -4691,24 +4816,24 @@
         <v>303</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B143" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="E143" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E143" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="144" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="144" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="11" t="s">
         <v>93</v>
       </c>
@@ -4719,7 +4844,7 @@
         <v>308</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,13 +4852,13 @@
         <v>93</v>
       </c>
       <c r="B145" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C145" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="E145" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="146" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,25 +4872,23 @@
         <v>313</v>
       </c>
       <c r="E146" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C147" s="5"/>
+      <c r="AMJ147" s="19"/>
+    </row>
+    <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="147" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B147" s="11" t="s">
+      <c r="C148" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C147" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C148" s="5"/>
       <c r="AMJ148" s="19"/>
     </row>
     <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4773,10 +4896,10 @@
         <v>93</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="AMJ149" s="19"/>
     </row>
@@ -4785,52 +4908,74 @@
         <v>93</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="AMJ150" s="19"/>
     </row>
     <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>322</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C151" s="19"/>
       <c r="AMJ151" s="19"/>
     </row>
-    <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="19"/>
       <c r="AMJ152" s="19"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="19"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="19"/>
+      <c r="T153" s="19"/>
+      <c r="U153" s="19"/>
+      <c r="AMD153" s="19"/>
+      <c r="AME153" s="19"/>
+      <c r="AMF153" s="19"/>
+      <c r="AMG153" s="19"/>
+      <c r="AMH153" s="19"/>
+      <c r="AMI153" s="19"/>
       <c r="AMJ153" s="19"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>323</v>
+        <v>93</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4853,20 +4998,18 @@
       <c r="AMI154" s="19"/>
       <c r="AMJ154" s="19"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>233</v>
+      <c r="B155" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E155" s="19"/>
-      <c r="F155" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="F155" s="19"/>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4889,49 +5032,30 @@
       <c r="AMI155" s="19"/>
       <c r="AMJ155" s="19"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
-      <c r="O156" s="19"/>
-      <c r="P156" s="19"/>
-      <c r="Q156" s="19"/>
-      <c r="R156" s="19"/>
-      <c r="S156" s="19"/>
-      <c r="T156" s="19"/>
-      <c r="U156" s="19"/>
-      <c r="AMD156" s="19"/>
-      <c r="AME156" s="19"/>
-      <c r="AMF156" s="19"/>
-      <c r="AMG156" s="19"/>
-      <c r="AMH156" s="19"/>
-      <c r="AMI156" s="19"/>
+      <c r="B156" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>324</v>
+      </c>
       <c r="AMJ156" s="19"/>
     </row>
     <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>238</v>
+      <c r="B157" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>242</v>
+        <v>326</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="AMJ157" s="19"/>
     </row>
@@ -4939,13 +5063,10 @@
       <c r="A158" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B158" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F158" s="1" t="s">
+      <c r="B158" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>328</v>
       </c>
       <c r="AMJ158" s="19"/>
@@ -4955,10 +5076,13 @@
         <v>93</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>330</v>
       </c>
       <c r="AMJ159" s="19"/>
     </row>
@@ -4967,32 +5091,21 @@
         <v>93</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>331</v>
       </c>
       <c r="AMJ160" s="19"/>
     </row>
     <row r="161" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>330</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C161" s="19"/>
       <c r="AMJ161" s="19"/>
     </row>
-    <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C162" s="19"/>
       <c r="AMJ162" s="19"/>
     </row>
@@ -8992,10 +9105,7 @@
       <c r="C1161" s="19"/>
       <c r="AMJ1161" s="19"/>
     </row>
-    <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1162" s="19"/>
-      <c r="AMJ1162" s="19"/>
-    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9074,7 +9184,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9108,13 +9218,13 @@
     </row>
     <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -9142,13 +9252,13 @@
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9176,35 +9286,35 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9212,13 +9322,13 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -9246,13 +9356,13 @@
     </row>
     <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -9280,13 +9390,13 @@
     </row>
     <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -9314,13 +9424,13 @@
     </row>
     <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -9351,10 +9461,10 @@
         <v>177</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9364,10 +9474,10 @@
         <v>185</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9375,10 +9485,10 @@
         <v>185</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" s="19" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,10 +9496,10 @@
         <v>185</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9397,10 +9507,10 @@
         <v>185</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9408,10 +9518,10 @@
         <v>185</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9419,10 +9529,10 @@
         <v>185</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9430,10 +9540,10 @@
         <v>185</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9441,43 +9551,43 @@
         <v>185</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="24" t="s">
         <v>371</v>
       </c>
+      <c r="C25" s="24" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="26" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="24" t="s">
         <v>373</v>
       </c>
+      <c r="C26" s="24" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="27" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="24" t="s">
         <v>375</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="28" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9485,10 +9595,10 @@
         <v>185</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9496,321 +9606,321 @@
         <v>185</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="40" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" s="19" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" s="19" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="61" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9820,10 +9930,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9831,55 +9941,55 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="66" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -9907,81 +10017,81 @@
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="AMJ1" s="23"/>
+      <c r="E1" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="AMJ1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="B2" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="25" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-02-27  12-30</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="22" t="s">
+        <v>2024-05-13  14-17</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="AMJ2" s="23"/>
+      <c r="E2" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="AMJ2" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
